--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750636.1564681449</v>
+        <v>673682.385085014</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433525.0836027454</v>
+        <v>434113.9312046669</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12118625.54424172</v>
+        <v>12116072.32741042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618294.378291188</v>
+        <v>7620767.233824287</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,13 +949,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.43923176655773</v>
+        <v>47.10019733413721</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>87.86737129411912</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X11" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.44114735525805</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>177.2290413091048</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>180.7124674296864</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>227.766483451776</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>109.5024340224379</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>179.6685028635861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>262.3974823764356</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H17" t="n">
-        <v>324.0866155240853</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I17" t="n">
-        <v>152.548091345012</v>
+        <v>154.2494468627951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>58.25549283948416</v>
       </c>
       <c r="S17" t="n">
-        <v>173.9235812283277</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.5183529885095</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2254473736161</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5395717772072</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H18" t="n">
-        <v>104.4710243243052</v>
+        <v>84.80040560138293</v>
       </c>
       <c r="I18" t="n">
-        <v>61.71693425436623</v>
+        <v>62.52989468754937</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.19042879858024</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.7502381664491</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T18" t="n">
-        <v>196.924264617027</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15.3826281102441</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.1814325263854</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.9878642566383</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>140.2121974150396</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>45.56111255525917</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>324.0866155240853</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I20" t="n">
-        <v>110.1360834617136</v>
+        <v>154.2494468627951</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.48335682900645</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.7802744481567</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.5183529885095</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2254473736161</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>117.4873018804469</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H21" t="n">
-        <v>104.4710243243052</v>
+        <v>33.09168551850828</v>
       </c>
       <c r="I21" t="n">
-        <v>61.71693425436623</v>
+        <v>62.52989468754937</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.24269869534076</v>
+        <v>51.70872008287459</v>
       </c>
       <c r="S21" t="n">
-        <v>156.7502381664491</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T21" t="n">
-        <v>196.924264617027</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>106.6592074433065</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>95.73919919926875</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.9528127688023</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>121.0083330457744</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>196.7218456862863</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>136.0696023912433</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>108.9695455780589</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U27" t="n">
         <v>225.8879277888686</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>330.2282948611955</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>295.9408816142887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034768</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>128.4970238253391</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>127.9907220675518</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>135.8442372525925</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>196.2188425168925</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.5579520742065</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>39.96813536721593</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3559,16 +3559,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>106.7489988643975</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>318.8084121711546</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.84244993117463</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>70.06474167893016</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>259.5137794056238</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.0382101334478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.0233723342157</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4027,13 +4027,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>47.40419526769168</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.588948023153</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="D3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="E3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="4">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.2300195200815</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="C6" t="n">
-        <v>205.7769902389545</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="D6" t="n">
-        <v>56.84258057770322</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="E6" t="n">
-        <v>56.84258057770322</v>
+        <v>66.85710001338163</v>
       </c>
       <c r="F6" t="n">
-        <v>56.84258057770322</v>
+        <v>66.85710001338163</v>
       </c>
       <c r="G6" t="n">
-        <v>56.84258057770322</v>
+        <v>66.85710001338163</v>
       </c>
       <c r="H6" t="n">
-        <v>56.84258057770322</v>
+        <v>66.85710001338163</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401495</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>486.9119902784999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.9604071117565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C11" t="n">
-        <v>286.9604071117565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D11" t="n">
-        <v>286.9604071117565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E11" t="n">
-        <v>286.9604071117565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7250809573684</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>330.2546714142364</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>563.3128681098027</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>785.5101925369335</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>950.1371873885148</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
-        <v>1052.968135806668</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806668</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>1052.968135806668</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V11" t="n">
-        <v>1052.968135806668</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W11" t="n">
-        <v>1052.968135806668</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X11" t="n">
-        <v>787.0670914110444</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y11" t="n">
-        <v>552.8614515073797</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.5123919972604</v>
+        <v>109.772397078701</v>
       </c>
       <c r="C12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H12" t="n">
-        <v>21.05936271613335</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>24.95018035683217</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>24.95018035683217</v>
+        <v>121.6947060708167</v>
       </c>
       <c r="L12" t="n">
-        <v>265.5537082516948</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="M12" t="n">
-        <v>524.9036321565288</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N12" t="n">
-        <v>524.9036321565288</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>785.316696249021</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
-        <v>977.3180709271197</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>880.4795283993085</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T12" t="n">
-        <v>678.4944708143844</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U12" t="n">
-        <v>450.2741420565892</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V12" t="n">
-        <v>450.2741420565892</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="W12" t="n">
-        <v>450.2741420565892</v>
+        <v>525.3841960491877</v>
       </c>
       <c r="X12" t="n">
-        <v>242.4226418510564</v>
+        <v>317.5326958436549</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.4226418510564</v>
+        <v>109.772397078701</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>54.48163939360305</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1098670955241</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>150.08777394865</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>180.2341645716486</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.0988920136273</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="C14" t="n">
-        <v>291.0988920136273</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="D14" t="n">
-        <v>291.0988920136273</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="E14" t="n">
-        <v>291.0988920136273</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="F14" t="n">
-        <v>25.19784761800413</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="G14" t="n">
-        <v>25.19784761800413</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H14" t="n">
-        <v>25.19784761800413</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I14" t="n">
-        <v>25.19784761800413</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L14" t="n">
-        <v>330.2546714142364</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098028</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369335</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O14" t="n">
-        <v>950.1371873885148</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806668</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1052.968135806668</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S14" t="n">
-        <v>1052.968135806668</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T14" t="n">
-        <v>1052.968135806668</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U14" t="n">
-        <v>1052.968135806668</v>
+        <v>483.5763404214833</v>
       </c>
       <c r="V14" t="n">
-        <v>1052.968135806668</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="W14" t="n">
-        <v>1052.968135806668</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="X14" t="n">
-        <v>822.9009808048736</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="Y14" t="n">
-        <v>556.9999364092505</v>
+        <v>204.6303669847605</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>501.2844049758309</v>
+        <v>420.2901857434773</v>
       </c>
       <c r="C15" t="n">
-        <v>326.8313756947039</v>
+        <v>420.2901857434773</v>
       </c>
       <c r="D15" t="n">
-        <v>326.8313756947039</v>
+        <v>271.355776082226</v>
       </c>
       <c r="E15" t="n">
-        <v>167.5939206892484</v>
+        <v>271.355776082226</v>
       </c>
       <c r="F15" t="n">
-        <v>21.05936271613335</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613335</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K15" t="n">
-        <v>21.05936271613335</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L15" t="n">
-        <v>261.6628906109959</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M15" t="n">
-        <v>522.2725042231461</v>
+        <v>485.8202418432343</v>
       </c>
       <c r="N15" t="n">
-        <v>782.8821178352964</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O15" t="n">
-        <v>1043.295181927789</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P15" t="n">
-        <v>1052.968135806668</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>850.9830782217434</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U15" t="n">
-        <v>850.9830782217434</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V15" t="n">
-        <v>850.9830782217434</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W15" t="n">
-        <v>850.9830782217434</v>
+        <v>420.2901857434773</v>
       </c>
       <c r="X15" t="n">
-        <v>850.9830782217434</v>
+        <v>420.2901857434773</v>
       </c>
       <c r="Y15" t="n">
-        <v>669.4997419958988</v>
+        <v>420.2901857434773</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360305</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955241</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N16" t="n">
-        <v>150.08777394865</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716486</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1304.273946867881</v>
+        <v>1963.303677992398</v>
       </c>
       <c r="C17" t="n">
-        <v>1304.273946867881</v>
+        <v>1963.303677992398</v>
       </c>
       <c r="D17" t="n">
-        <v>946.0082482611308</v>
+        <v>1605.037979385647</v>
       </c>
       <c r="E17" t="n">
-        <v>946.0082482611308</v>
+        <v>1219.249726787403</v>
       </c>
       <c r="F17" t="n">
-        <v>535.0223434715233</v>
+        <v>954.2017647910031</v>
       </c>
       <c r="G17" t="n">
-        <v>535.0223434715233</v>
+        <v>536.1772201330983</v>
       </c>
       <c r="H17" t="n">
-        <v>207.662125770427</v>
+        <v>208.3604819140282</v>
       </c>
       <c r="I17" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J17" t="n">
-        <v>167.9967420957491</v>
+        <v>163.2684600773919</v>
       </c>
       <c r="K17" t="n">
-        <v>460.2328577110569</v>
+        <v>449.9470991626238</v>
       </c>
       <c r="L17" t="n">
-        <v>875.0542279590788</v>
+        <v>857.873928349396</v>
       </c>
       <c r="M17" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N17" t="n">
-        <v>1824.510100622979</v>
+        <v>1791.86265730319</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.339393288586</v>
+        <v>2184.330749739191</v>
       </c>
       <c r="P17" t="n">
-        <v>2527.91006129353</v>
+        <v>2481.618803655552</v>
       </c>
       <c r="Q17" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R17" t="n">
-        <v>2678.657230692463</v>
+        <v>2568.804059358748</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.976845613344</v>
+        <v>2568.804059358748</v>
       </c>
       <c r="T17" t="n">
-        <v>2284.271438554243</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="U17" t="n">
-        <v>2030.508360399075</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="V17" t="n">
-        <v>2030.508360399075</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="W17" t="n">
-        <v>1677.739705128961</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="X17" t="n">
-        <v>1304.273946867881</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="Y17" t="n">
-        <v>1304.273946867881</v>
+        <v>2349.903518056519</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.5179807326552</v>
+        <v>968.473506867856</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0649514515283</v>
+        <v>794.020477586729</v>
       </c>
       <c r="D18" t="n">
-        <v>665.130541790277</v>
+        <v>645.0860679254778</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8930867848214</v>
+        <v>485.8486129200223</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3585288117064</v>
+        <v>339.3140549469073</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4397694407901</v>
+        <v>201.3714449707325</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9134822445222</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I18" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J18" t="n">
-        <v>128.0296757109481</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="K18" t="n">
-        <v>258.6215127592869</v>
+        <v>302.657166001515</v>
       </c>
       <c r="L18" t="n">
-        <v>661.3974395520225</v>
+        <v>700.3575322614756</v>
       </c>
       <c r="M18" t="n">
-        <v>1183.39717004631</v>
+        <v>1216.434323012739</v>
       </c>
       <c r="N18" t="n">
-        <v>1734.919693535563</v>
+        <v>1761.877144168227</v>
       </c>
       <c r="O18" t="n">
-        <v>2173.039375606298</v>
+        <v>2194.435086369829</v>
       </c>
       <c r="P18" t="n">
-        <v>2507.665978104124</v>
+        <v>2524.597902291027</v>
       </c>
       <c r="Q18" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R18" t="n">
-        <v>2647.151747057533</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.818173152029</v>
+        <v>2468.871403082455</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.904774548972</v>
+        <v>2269.861869802939</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.734581683154</v>
+        <v>2041.690107818355</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.582473451411</v>
+        <v>1806.537999586612</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.34511672321</v>
+        <v>1552.300642858411</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.493616517677</v>
+        <v>1344.449142652878</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.733317752723</v>
+        <v>1136.688843887924</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352.5480018457288</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="C19" t="n">
-        <v>337.009993653563</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="D19" t="n">
-        <v>337.009993653563</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="E19" t="n">
-        <v>337.009993653563</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="F19" t="n">
-        <v>190.1200461556527</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="G19" t="n">
-        <v>190.1200461556527</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="H19" t="n">
-        <v>190.1200461556527</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="I19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="K19" t="n">
-        <v>109.0499203375202</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L19" t="n">
-        <v>235.567527881399</v>
+        <v>229.3568204186484</v>
       </c>
       <c r="M19" t="n">
-        <v>379.351729053388</v>
+        <v>370.0690032423454</v>
       </c>
       <c r="N19" t="n">
-        <v>525.1516797168517</v>
+        <v>512.8699812875409</v>
       </c>
       <c r="O19" t="n">
-        <v>643.8052370459118</v>
+        <v>628.7535020058463</v>
       </c>
       <c r="P19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="Q19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="R19" t="n">
-        <v>573.3405809892589</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="S19" t="n">
-        <v>573.3405809892589</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="T19" t="n">
-        <v>573.3405809892589</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="U19" t="n">
-        <v>573.3405809892589</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="V19" t="n">
-        <v>573.3405809892589</v>
+        <v>562.7627090108876</v>
       </c>
       <c r="W19" t="n">
-        <v>573.3405809892589</v>
+        <v>273.345538973927</v>
       </c>
       <c r="X19" t="n">
-        <v>573.3405809892589</v>
+        <v>273.345538973927</v>
       </c>
       <c r="Y19" t="n">
-        <v>352.5480018457288</v>
+        <v>52.55295983039685</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>903.1678362577991</v>
+        <v>1351.450149342849</v>
       </c>
       <c r="C20" t="n">
-        <v>903.1678362577991</v>
+        <v>1351.450149342849</v>
       </c>
       <c r="D20" t="n">
-        <v>903.1678362577991</v>
+        <v>993.1844507360991</v>
       </c>
       <c r="E20" t="n">
-        <v>903.1678362577991</v>
+        <v>947.1631249227059</v>
       </c>
       <c r="F20" t="n">
-        <v>492.1819314681915</v>
+        <v>536.1772201330983</v>
       </c>
       <c r="G20" t="n">
-        <v>492.1819314681915</v>
+        <v>536.1772201330983</v>
       </c>
       <c r="H20" t="n">
-        <v>164.8217137670953</v>
+        <v>208.3604819140282</v>
       </c>
       <c r="I20" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J20" t="n">
-        <v>167.996742095749</v>
+        <v>163.2684600773919</v>
       </c>
       <c r="K20" t="n">
-        <v>460.2328577110568</v>
+        <v>449.9470991626238</v>
       </c>
       <c r="L20" t="n">
-        <v>875.0542279590787</v>
+        <v>857.8739283493962</v>
       </c>
       <c r="M20" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N20" t="n">
-        <v>1824.510100622979</v>
+        <v>1791.862657303191</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.339393288586</v>
+        <v>2184.330749739191</v>
       </c>
       <c r="P20" t="n">
-        <v>2527.91006129353</v>
+        <v>2481.618803655552</v>
       </c>
       <c r="Q20" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R20" t="n">
-        <v>2622.613435915689</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="S20" t="n">
-        <v>2446.067704149874</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="T20" t="n">
-        <v>2227.362297090773</v>
+        <v>2408.747450217614</v>
       </c>
       <c r="U20" t="n">
-        <v>1973.599218935605</v>
+        <v>2408.747450217614</v>
       </c>
       <c r="V20" t="n">
-        <v>1642.536331592035</v>
+        <v>2077.684562874043</v>
       </c>
       <c r="W20" t="n">
-        <v>1289.767676321921</v>
+        <v>1724.915907603929</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.767676321921</v>
+        <v>1351.450149342849</v>
       </c>
       <c r="Y20" t="n">
-        <v>1289.767676321921</v>
+        <v>1351.450149342849</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>969.2732636652206</v>
+        <v>916.242476481114</v>
       </c>
       <c r="C21" t="n">
-        <v>794.8202343840936</v>
+        <v>741.789447199987</v>
       </c>
       <c r="D21" t="n">
-        <v>645.8858247228424</v>
+        <v>592.8550375387357</v>
       </c>
       <c r="E21" t="n">
-        <v>486.6483697173869</v>
+        <v>433.6175825332802</v>
       </c>
       <c r="F21" t="n">
-        <v>340.1138117442719</v>
+        <v>287.0830245601652</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4397694407901</v>
+        <v>149.1404145839904</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9134822445222</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I21" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J21" t="n">
-        <v>128.0296757109481</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="K21" t="n">
-        <v>258.6215127592869</v>
+        <v>302.657166001515</v>
       </c>
       <c r="L21" t="n">
-        <v>661.3974395520225</v>
+        <v>700.3575322614756</v>
       </c>
       <c r="M21" t="n">
-        <v>1183.39717004631</v>
+        <v>1216.434323012739</v>
       </c>
       <c r="N21" t="n">
-        <v>1734.919693535563</v>
+        <v>1761.877144168227</v>
       </c>
       <c r="O21" t="n">
-        <v>2173.039375606298</v>
+        <v>2194.435086369829</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.665978104124</v>
+        <v>2524.597902291027</v>
       </c>
       <c r="Q21" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.907029990098</v>
+        <v>2575.4169611331</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.573456084594</v>
+        <v>2416.640372695713</v>
       </c>
       <c r="T21" t="n">
-        <v>2270.660057481537</v>
+        <v>2217.630839416197</v>
       </c>
       <c r="U21" t="n">
-        <v>2042.48986461572</v>
+        <v>1989.459077431613</v>
       </c>
       <c r="V21" t="n">
-        <v>1807.337756383977</v>
+        <v>1754.30696919987</v>
       </c>
       <c r="W21" t="n">
-        <v>1553.100399655775</v>
+        <v>1500.069612471669</v>
       </c>
       <c r="X21" t="n">
-        <v>1345.248899450243</v>
+        <v>1292.218112266136</v>
       </c>
       <c r="Y21" t="n">
-        <v>1137.488600685289</v>
+        <v>1084.457813501182</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.4224211241493</v>
+        <v>160.289533005454</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4862381962424</v>
+        <v>160.289533005454</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4862381962424</v>
+        <v>160.289533005454</v>
       </c>
       <c r="E22" t="n">
-        <v>53.57314461384925</v>
+        <v>160.289533005454</v>
       </c>
       <c r="F22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="G22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="H22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="I22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="J22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039685</v>
       </c>
       <c r="K22" t="n">
-        <v>109.0499203375202</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L22" t="n">
-        <v>235.567527881399</v>
+        <v>229.3568204186484</v>
       </c>
       <c r="M22" t="n">
-        <v>379.351729053388</v>
+        <v>370.0690032423454</v>
       </c>
       <c r="N22" t="n">
-        <v>525.1516797168517</v>
+        <v>512.8699812875409</v>
       </c>
       <c r="O22" t="n">
-        <v>643.8052370459118</v>
+        <v>628.7535020058463</v>
       </c>
       <c r="P22" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="Q22" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="R22" t="n">
-        <v>625.1069093300362</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="S22" t="n">
-        <v>625.1069093300362</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="T22" t="n">
-        <v>625.1069093300362</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="U22" t="n">
-        <v>625.1069093300362</v>
+        <v>704.3911912483014</v>
       </c>
       <c r="V22" t="n">
-        <v>370.4224211241493</v>
+        <v>449.7067030424146</v>
       </c>
       <c r="W22" t="n">
-        <v>370.4224211241493</v>
+        <v>160.289533005454</v>
       </c>
       <c r="X22" t="n">
-        <v>370.4224211241493</v>
+        <v>160.289533005454</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.4224211241493</v>
+        <v>160.289533005454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1780.41262192169</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C23" t="n">
-        <v>1780.41262192169</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1971.274048960885</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.274048960885</v>
+        <v>1582.296434132946</v>
       </c>
       <c r="Y23" t="n">
-        <v>1971.274048960885</v>
+        <v>1192.157102157134</v>
       </c>
     </row>
     <row r="24">
@@ -6092,19 +6092,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6177,19 +6177,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>211.6471865296039</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
         <v>53.94298182036445</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.9054987607761</v>
+        <v>609.3508327416152</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036444</v>
+        <v>609.3508327416152</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036444</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859355</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>1199.64467080071</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.505338824898</v>
+        <v>995.950672805737</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6308,22 +6308,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6335,19 +6335,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036444</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>108.9687959810045</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W28" t="n">
-        <v>108.9687959810045</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1363.553390680693</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C29" t="n">
-        <v>1363.553390680693</v>
+        <v>798.4928208131998</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.553390680693</v>
+        <v>798.4928208131998</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036444</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.483574129469</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W29" t="n">
-        <v>1363.553390680693</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X29" t="n">
-        <v>1363.553390680693</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y29" t="n">
-        <v>1363.553390680693</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,19 +6569,19 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
         <v>1364.473611002105</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.8558756644251</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C31" t="n">
-        <v>370.8558756644251</v>
+        <v>183.7379553813131</v>
       </c>
       <c r="D31" t="n">
-        <v>370.8558756644251</v>
+        <v>183.7379553813131</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>183.7379553813131</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036444</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>598.8454265624425</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>598.8454265624425</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>598.8454265624425</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U31" t="n">
-        <v>598.8454265624425</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V31" t="n">
-        <v>598.8454265624425</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W31" t="n">
-        <v>598.8454265624425</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X31" t="n">
-        <v>370.8558756644251</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.8558756644251</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2255.520561484594</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>1886.558044544182</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X32" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6791,19 +6791,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1210.087414675782</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C35" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1583.378275356799</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X35" t="n">
-        <v>1583.378275356799</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y35" t="n">
-        <v>1583.378275356799</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,19 +7028,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2515.500626187983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2196.44780384774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2048.534710265347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1749.341643278937</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C38" t="n">
-        <v>1749.341643278937</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7186,7 +7186,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2139.480975254749</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2139.480975254749</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W38" t="n">
-        <v>2139.480975254749</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X38" t="n">
-        <v>2139.480975254749</v>
+        <v>1373.77779650965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1749.341643278937</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y40" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1731.411330760289</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C41" t="n">
-        <v>1362.448813819877</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.183115213127</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E41" t="n">
-        <v>618.3948626148824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W41" t="n">
-        <v>1993.54646147304</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X41" t="n">
-        <v>1993.54646147304</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y41" t="n">
-        <v>1731.411330760289</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7590,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>484.4236418782189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>229.739153672332</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>229.739153672332</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>229.739153672332</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>593.197210423519</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C44" t="n">
-        <v>593.197210423519</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D44" t="n">
-        <v>593.197210423519</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2092.422847177207</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>1366.188433646013</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y44" t="n">
-        <v>976.0491016702015</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7763,13 +7763,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7833,22 +7833,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>502.7251118619119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V46" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036444</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236087</v>
+        <v>226.2857655321398</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>391.561360463611</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>118.4674613291452</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236087</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>392.8337743093849</v>
+        <v>336.4470769688303</v>
       </c>
       <c r="N15" t="n">
-        <v>381.7094952808121</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>134.2926466205232</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636973</v>
       </c>
       <c r="K18" t="n">
-        <v>139.9328360295462</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>144.4639137502132</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636973</v>
       </c>
       <c r="K21" t="n">
-        <v>139.9328360295462</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>144.4639137502132</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22637,10 +22637,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>66.60465858931751</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>184.8849328556481</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>52.95740108485735</v>
+        <v>42.29643551727787</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>49.47614586909151</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.4918077118137</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2102214038314</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>206.9091621893709</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644701</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>306.9931469710689</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X11" t="n">
-        <v>106.4890667268022</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>154.3743551514255</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.0920362946093</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703753</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>74.46594185181476</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>2.023134740338435</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839141</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871611</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.68702246598916</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>234.4494810976331</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>206.9091621893709</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>141.9646172266931</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.9959047043867</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>35.56677837094601</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828962</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703753</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>26.01419291371823</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>2.023134740338435</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839141</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871611</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.68702246598916</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>144.4785633652758</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8001683373802</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.48335682900645</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8566932198289692</v>
+        <v>175.7859067381893</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>19.89866189156801</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.05226989676053</v>
+        <v>51.70872008287459</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>151.8641929883837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3169785531093</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H19" t="n">
-        <v>156.234692619878</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J19" t="n">
-        <v>45.70732317846587</v>
+        <v>47.10687144748481</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.72366672374995</v>
+        <v>31.38127751273458</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S19" t="n">
-        <v>212.2706021837458</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2822656761991</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>111.9254459087884</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>336.3692575170026</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8001683373802</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.41200788329843</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>58.25549283948416</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>175.7859067381893</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.05226989676024</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>71.60738197444266</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>38.7618405796247</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3169785531093</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H22" t="n">
-        <v>156.234692619878</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I22" t="n">
-        <v>135.1814325263854</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J22" t="n">
-        <v>45.70732317846587</v>
+        <v>47.10687144748481</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.72366672374995</v>
+        <v>31.38127751273458</v>
       </c>
       <c r="R22" t="n">
-        <v>51.24866505736951</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S22" t="n">
-        <v>212.2706021837458</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2822656761991</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>193.7810288946783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>248.7227676326946</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,22 +24417,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>28.98780970275089</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>218.6134392294396</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>260.7615551004101</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>51.70207521106624</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>53.30008710312433</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>16.92402419759213</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>18.6744699126061</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>131.5334159532424</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,16 +25125,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.17588958927405</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>325.3047564037916</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>144.4751686438918</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>50.92268850731443</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.98953025076267</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25599,10 +25599,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>257.6875167912048</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.7241592504298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.54644321864694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.710469329264924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.3269054107774</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>63.13204062090065</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>476399.1042877971</v>
+        <v>486783.6051461404</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>476399.1042877971</v>
+        <v>486783.6051461404</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>786054.2115886038</v>
+        <v>776356.1350367028</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>786054.2115886038</v>
+        <v>776356.1350367028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250658</v>
+        <v>132928.538025066</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>138672.1204679983</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>138672.1204679983</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="G2" t="n">
-        <v>230281.9864974931</v>
+        <v>227412.8978274748</v>
       </c>
       <c r="H2" t="n">
-        <v>230281.9864974932</v>
+        <v>227412.8978274748</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26346,7 +26346,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25125.73635942195</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>384098.3586013296</v>
+        <v>359192.6012996554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4224.96930420476</v>
+        <v>15879.4197455673</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910619</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5539.242983423047</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>97805.92659334037</v>
+        <v>91629.18802282485</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8577.315374774353</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="F4" t="n">
-        <v>8577.315374774351</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="G4" t="n">
-        <v>9362.049612804041</v>
+        <v>9337.310492338856</v>
       </c>
       <c r="H4" t="n">
-        <v>9362.049612804041</v>
+        <v>9337.310492338856</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361481</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>16506.80740683336</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683336</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="G5" t="n">
-        <v>48863.64691519556</v>
+        <v>47848.99578308388</v>
       </c>
       <c r="H5" t="n">
-        <v>48863.64691519556</v>
+        <v>47848.99578308388</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4669.273339585889</v>
+        <v>-16887.28395962632</v>
       </c>
       <c r="C6" t="n">
-        <v>76100.15819196179</v>
+        <v>63882.14757192144</v>
       </c>
       <c r="D6" t="n">
-        <v>76100.15819196185</v>
+        <v>63882.14757192141</v>
       </c>
       <c r="E6" t="n">
-        <v>88462.26132696861</v>
+        <v>65296.6600683969</v>
       </c>
       <c r="F6" t="n">
-        <v>113587.9976863906</v>
+        <v>103925.5411976326</v>
       </c>
       <c r="G6" t="n">
-        <v>-212042.0686318362</v>
+        <v>-195278.7478799933</v>
       </c>
       <c r="H6" t="n">
-        <v>172056.2899694935</v>
+        <v>163913.8534196622</v>
       </c>
       <c r="I6" t="n">
-        <v>168494.6226106304</v>
+        <v>150771.7584234486</v>
       </c>
       <c r="J6" t="n">
-        <v>109659.649315729</v>
+        <v>103591.2355699098</v>
       </c>
       <c r="K6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="L6" t="n">
-        <v>172719.5919148351</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="M6" t="n">
-        <v>167180.3489314121</v>
+        <v>157893.5951738024</v>
       </c>
       <c r="N6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="O6" t="n">
-        <v>74913.66532149479</v>
+        <v>75021.99014619112</v>
       </c>
       <c r="P6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>373.7640829665194</v>
+        <v>362.7865280725815</v>
       </c>
       <c r="H3" t="n">
-        <v>373.7640829665194</v>
+        <v>362.7865280725815</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G4" t="n">
-        <v>669.6643076731157</v>
+        <v>656.9119978799606</v>
       </c>
       <c r="H4" t="n">
-        <v>669.6643076731157</v>
+        <v>656.9119978799606</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>350.7507002797298</v>
+        <v>327.7652673534561</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.979581250567151</v>
+        <v>14.95713614450517</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.22774507400783</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.622965081439929</v>
+        <v>17.37527487459499</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776589</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887802</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381035003</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760445</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324509</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>14.59973623455499</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895175</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019332</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841739</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060786</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544934</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679593</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332537</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125458</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>4.67671015524656</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750316</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688227</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>12.54229356430034</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418809</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77742425104034</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277523081</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210614</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605604</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
-        <v>0.919449770552396</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047542</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>2.934017658281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166742</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471434</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988743</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815848031</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150904</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>5.01918103713195</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705232</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473138</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750111</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887802</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381035003</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760445</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324509</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455499</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895175</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019332</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841739</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060786</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544934</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679593</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332537</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125458</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>4.67671015524656</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750316</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688227</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430034</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418809</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104034</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277523081</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210614</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605604</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
-        <v>0.919449770552396</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047542</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166742</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471434</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988743</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815848031</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150904</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>5.01918103713195</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705232</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473138</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750111</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.502569177754851</v>
+        <v>1.458438303809372</v>
       </c>
       <c r="H17" t="n">
-        <v>15.38818659168187</v>
+        <v>14.93623127888773</v>
       </c>
       <c r="I17" t="n">
-        <v>57.92779822539394</v>
+        <v>56.22644270761085</v>
       </c>
       <c r="J17" t="n">
-        <v>127.5286807504709</v>
+        <v>123.7831279879408</v>
       </c>
       <c r="K17" t="n">
-        <v>191.1324340448338</v>
+        <v>185.5188213881915</v>
       </c>
       <c r="L17" t="n">
-        <v>237.1166855185488</v>
+        <v>230.1525026283976</v>
       </c>
       <c r="M17" t="n">
-        <v>263.8380001334467</v>
+        <v>256.0890048137675</v>
       </c>
       <c r="N17" t="n">
-        <v>268.1071748097426</v>
+        <v>260.2327926444659</v>
       </c>
       <c r="O17" t="n">
-        <v>253.1660025484428</v>
+        <v>245.7304467609615</v>
       </c>
       <c r="P17" t="n">
-        <v>216.0713259726199</v>
+        <v>209.7252511356675</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.2605672942743</v>
+        <v>157.4949293804944</v>
       </c>
       <c r="R17" t="n">
-        <v>94.38576111214323</v>
+        <v>91.61362510166552</v>
       </c>
       <c r="S17" t="n">
-        <v>34.2397951380887</v>
+        <v>33.23416284805609</v>
       </c>
       <c r="T17" t="n">
-        <v>6.577496575621863</v>
+        <v>6.384313674925528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.120205534220388</v>
+        <v>0.1166750643047497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8039453860034569</v>
+        <v>0.780333286797628</v>
       </c>
       <c r="H18" t="n">
-        <v>7.764419912191283</v>
+        <v>7.536376743545515</v>
       </c>
       <c r="I18" t="n">
-        <v>27.67969859704885</v>
+        <v>26.86673816386571</v>
       </c>
       <c r="J18" t="n">
-        <v>75.95520859605469</v>
+        <v>73.72438303029696</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8195494582863</v>
+        <v>126.006713245738</v>
       </c>
       <c r="L18" t="n">
-        <v>174.5584049741278</v>
+        <v>169.4315761531429</v>
       </c>
       <c r="M18" t="n">
-        <v>203.7014252167531</v>
+        <v>197.7186577995569</v>
       </c>
       <c r="N18" t="n">
-        <v>209.0927958097324</v>
+        <v>202.9516823412831</v>
       </c>
       <c r="O18" t="n">
-        <v>191.2790585724979</v>
+        <v>185.6611395127672</v>
       </c>
       <c r="P18" t="n">
-        <v>153.5183079641163</v>
+        <v>149.0094326341892</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.6229233080904</v>
+        <v>99.60885955683408</v>
       </c>
       <c r="R18" t="n">
-        <v>49.91513545730237</v>
+        <v>48.44911406976854</v>
       </c>
       <c r="S18" t="n">
-        <v>14.93293293738876</v>
+        <v>14.49434855082435</v>
       </c>
       <c r="T18" t="n">
-        <v>3.240464077794634</v>
+        <v>3.145290748100964</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05289114381601692</v>
+        <v>0.05133771623668608</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6740008053494612</v>
+        <v>0.654205214557114</v>
       </c>
       <c r="H19" t="n">
-        <v>5.992479887561577</v>
+        <v>5.816479089425981</v>
       </c>
       <c r="I19" t="n">
-        <v>20.26904240087289</v>
+        <v>19.67373499777213</v>
       </c>
       <c r="J19" t="n">
-        <v>47.6518569382069</v>
+        <v>46.25230866918796</v>
       </c>
       <c r="K19" t="n">
-        <v>78.30663902151011</v>
+        <v>76.00675129127195</v>
       </c>
       <c r="L19" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424586</v>
       </c>
       <c r="M19" t="n">
-        <v>105.6526898785523</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N19" t="n">
-        <v>103.1405050586135</v>
+        <v>100.1112397876355</v>
       </c>
       <c r="O19" t="n">
-        <v>95.26695019612205</v>
+        <v>92.46893341758194</v>
       </c>
       <c r="P19" t="n">
-        <v>81.51733376699298</v>
+        <v>79.12314704061674</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.43837652794443</v>
+        <v>54.7807657389598</v>
       </c>
       <c r="R19" t="n">
-        <v>30.30552712053122</v>
+        <v>29.41544537454077</v>
       </c>
       <c r="S19" t="n">
-        <v>11.74599585322651</v>
+        <v>11.40101269369079</v>
       </c>
       <c r="T19" t="n">
-        <v>2.879821622856788</v>
+        <v>2.795240462198577</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03676368029178884</v>
+        <v>0.03568392079402444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.502569177754851</v>
+        <v>1.458438303809372</v>
       </c>
       <c r="H20" t="n">
-        <v>15.38818659168187</v>
+        <v>14.93623127888773</v>
       </c>
       <c r="I20" t="n">
-        <v>57.92779822539394</v>
+        <v>56.22644270761085</v>
       </c>
       <c r="J20" t="n">
-        <v>127.5286807504709</v>
+        <v>123.7831279879408</v>
       </c>
       <c r="K20" t="n">
-        <v>191.1324340448338</v>
+        <v>185.5188213881915</v>
       </c>
       <c r="L20" t="n">
-        <v>237.1166855185488</v>
+        <v>230.1525026283976</v>
       </c>
       <c r="M20" t="n">
-        <v>263.8380001334467</v>
+        <v>256.0890048137675</v>
       </c>
       <c r="N20" t="n">
-        <v>268.1071748097426</v>
+        <v>260.2327926444659</v>
       </c>
       <c r="O20" t="n">
-        <v>253.1660025484428</v>
+        <v>245.7304467609615</v>
       </c>
       <c r="P20" t="n">
-        <v>216.0713259726199</v>
+        <v>209.7252511356675</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.2605672942743</v>
+        <v>157.4949293804944</v>
       </c>
       <c r="R20" t="n">
-        <v>94.38576111214323</v>
+        <v>91.61362510166552</v>
       </c>
       <c r="S20" t="n">
-        <v>34.2397951380887</v>
+        <v>33.23416284805609</v>
       </c>
       <c r="T20" t="n">
-        <v>6.577496575621863</v>
+        <v>6.384313674925528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.120205534220388</v>
+        <v>0.1166750643047497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8039453860034569</v>
+        <v>0.780333286797628</v>
       </c>
       <c r="H21" t="n">
-        <v>7.764419912191283</v>
+        <v>7.536376743545515</v>
       </c>
       <c r="I21" t="n">
-        <v>27.67969859704885</v>
+        <v>26.86673816386571</v>
       </c>
       <c r="J21" t="n">
-        <v>75.95520859605469</v>
+        <v>73.72438303029696</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8195494582863</v>
+        <v>126.006713245738</v>
       </c>
       <c r="L21" t="n">
-        <v>174.5584049741278</v>
+        <v>169.4315761531429</v>
       </c>
       <c r="M21" t="n">
-        <v>203.7014252167531</v>
+        <v>197.7186577995569</v>
       </c>
       <c r="N21" t="n">
-        <v>209.0927958097324</v>
+        <v>202.9516823412831</v>
       </c>
       <c r="O21" t="n">
-        <v>191.2790585724979</v>
+        <v>185.6611395127672</v>
       </c>
       <c r="P21" t="n">
-        <v>153.5183079641163</v>
+        <v>149.0094326341892</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.6229233080904</v>
+        <v>99.60885955683408</v>
       </c>
       <c r="R21" t="n">
-        <v>49.91513545730237</v>
+        <v>48.44911406976854</v>
       </c>
       <c r="S21" t="n">
-        <v>14.93293293738876</v>
+        <v>14.49434855082435</v>
       </c>
       <c r="T21" t="n">
-        <v>3.240464077794634</v>
+        <v>3.145290748100964</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05289114381601692</v>
+        <v>0.05133771623668608</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6740008053494612</v>
+        <v>0.654205214557114</v>
       </c>
       <c r="H22" t="n">
-        <v>5.992479887561577</v>
+        <v>5.816479089425981</v>
       </c>
       <c r="I22" t="n">
-        <v>20.26904240087289</v>
+        <v>19.67373499777213</v>
       </c>
       <c r="J22" t="n">
-        <v>47.6518569382069</v>
+        <v>46.25230866918796</v>
       </c>
       <c r="K22" t="n">
-        <v>78.30663902151011</v>
+        <v>76.00675129127195</v>
       </c>
       <c r="L22" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424586</v>
       </c>
       <c r="M22" t="n">
-        <v>105.6526898785523</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N22" t="n">
-        <v>103.1405050586135</v>
+        <v>100.1112397876355</v>
       </c>
       <c r="O22" t="n">
-        <v>95.26695019612205</v>
+        <v>92.46893341758194</v>
       </c>
       <c r="P22" t="n">
-        <v>81.51733376699298</v>
+        <v>79.12314704061674</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.43837652794443</v>
+        <v>54.7807657389598</v>
       </c>
       <c r="R22" t="n">
-        <v>30.30552712053122</v>
+        <v>29.41544537454077</v>
       </c>
       <c r="S22" t="n">
-        <v>11.74599585322651</v>
+        <v>11.40101269369079</v>
       </c>
       <c r="T22" t="n">
-        <v>2.879821622856788</v>
+        <v>2.795240462198577</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03676368029178884</v>
+        <v>0.03568392079402444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194293</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4945358150182</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945115</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>224.4417418455866</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>166.289893789476</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>103.869644866821</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>100.6082676511397</v>
       </c>
       <c r="L12" t="n">
-        <v>243.0338665604673</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>261.969620105893</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>263.0434990833254</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>193.94078250313</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75987543178757</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>46.08911889082933</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>50.48273419507662</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
-        <v>30.45089961919058</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025438</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194293</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4945358150182</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945115</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455866</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>166.289893789476</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>103.869644866821</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>243.0338665604673</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>263.2420339516669</v>
+        <v>213.3996301387353</v>
       </c>
       <c r="N15" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O15" t="n">
-        <v>263.0434990833254</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>9.770660483716004</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178757</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082933</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507662</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
-        <v>30.45089961919058</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025438</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.5793913958584</v>
+        <v>111.8338386333283</v>
       </c>
       <c r="K17" t="n">
-        <v>295.187995571018</v>
+        <v>289.5743829143757</v>
       </c>
       <c r="L17" t="n">
-        <v>419.011485099012</v>
+        <v>412.0473022088608</v>
       </c>
       <c r="M17" t="n">
-        <v>483.0053003990064</v>
+        <v>475.2563050793273</v>
       </c>
       <c r="N17" t="n">
-        <v>476.0410356251359</v>
+        <v>468.1666534598592</v>
       </c>
       <c r="O17" t="n">
-        <v>403.8679723895015</v>
+        <v>396.4324166020201</v>
       </c>
       <c r="P17" t="n">
-        <v>306.637038388833</v>
+        <v>300.2909635518806</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.2698680797295</v>
+        <v>147.5042301659496</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>75.20861726979683</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9109465134735</v>
+        <v>252.6305112839576</v>
       </c>
       <c r="L18" t="n">
-        <v>406.8443704977128</v>
+        <v>401.7175416767279</v>
       </c>
       <c r="M18" t="n">
-        <v>527.2724550447347</v>
+        <v>521.2896876275385</v>
       </c>
       <c r="N18" t="n">
-        <v>557.0934580699527</v>
+        <v>550.9523446015033</v>
       </c>
       <c r="O18" t="n">
-        <v>442.545133404783</v>
+        <v>436.9272143450523</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0066691897232</v>
+        <v>333.4977938597961</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.718436957918</v>
+        <v>104.0909992210258</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.03714719562726</v>
+        <v>53.7372594653891</v>
       </c>
       <c r="L19" t="n">
-        <v>127.7955631756351</v>
+        <v>124.852498704562</v>
       </c>
       <c r="M19" t="n">
-        <v>145.2365668403929</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N19" t="n">
-        <v>147.2726774378421</v>
+        <v>144.2434121668641</v>
       </c>
       <c r="O19" t="n">
-        <v>119.8520781101617</v>
+        <v>117.0540613316216</v>
       </c>
       <c r="P19" t="n">
-        <v>78.79589303188646</v>
+        <v>76.40170630551023</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.5793913958584</v>
+        <v>111.8338386333283</v>
       </c>
       <c r="K20" t="n">
-        <v>295.187995571018</v>
+        <v>289.5743829143757</v>
       </c>
       <c r="L20" t="n">
-        <v>419.011485099012</v>
+        <v>412.0473022088608</v>
       </c>
       <c r="M20" t="n">
-        <v>483.0053003990064</v>
+        <v>475.2563050793273</v>
       </c>
       <c r="N20" t="n">
-        <v>476.0410356251359</v>
+        <v>468.1666534598592</v>
       </c>
       <c r="O20" t="n">
-        <v>403.8679723895015</v>
+        <v>396.4324166020201</v>
       </c>
       <c r="P20" t="n">
-        <v>306.637038388833</v>
+        <v>300.2909635518806</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.2698680797295</v>
+        <v>147.5042301659496</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>75.20861726979683</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9109465134735</v>
+        <v>252.6305112839576</v>
       </c>
       <c r="L21" t="n">
-        <v>406.8443704977128</v>
+        <v>401.7175416767279</v>
       </c>
       <c r="M21" t="n">
-        <v>527.2724550447347</v>
+        <v>521.2896876275385</v>
       </c>
       <c r="N21" t="n">
-        <v>557.0934580699527</v>
+        <v>550.9523446015033</v>
       </c>
       <c r="O21" t="n">
-        <v>442.545133404783</v>
+        <v>436.9272143450523</v>
       </c>
       <c r="P21" t="n">
-        <v>338.0066691897232</v>
+        <v>333.4977938597961</v>
       </c>
       <c r="Q21" t="n">
-        <v>172.718436957918</v>
+        <v>104.0909992210258</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.03714719562726</v>
+        <v>53.7372594653891</v>
       </c>
       <c r="L22" t="n">
-        <v>127.7955631756351</v>
+        <v>124.852498704562</v>
       </c>
       <c r="M22" t="n">
-        <v>145.2365668403929</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N22" t="n">
-        <v>147.2726774378421</v>
+        <v>144.2434121668641</v>
       </c>
       <c r="O22" t="n">
-        <v>119.8520781101617</v>
+        <v>117.0540613316216</v>
       </c>
       <c r="P22" t="n">
-        <v>78.79589303188646</v>
+        <v>76.40170630551023</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
